--- a/SKRIPSI/demo_read_input.xlsx
+++ b/SKRIPSI/demo_read_input.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="185">
   <si>
     <t>Customer Ke</t>
   </si>
@@ -52,72 +52,6 @@
     <t>00:02:35</t>
   </si>
   <si>
-    <t>00:02:36</t>
-  </si>
-  <si>
-    <t>00:02:37</t>
-  </si>
-  <si>
-    <t>00:02:38</t>
-  </si>
-  <si>
-    <t>00:02:39</t>
-  </si>
-  <si>
-    <t>00:02:40</t>
-  </si>
-  <si>
-    <t>00:02:41</t>
-  </si>
-  <si>
-    <t>00:02:42</t>
-  </si>
-  <si>
-    <t>00:02:43</t>
-  </si>
-  <si>
-    <t>00:02:44</t>
-  </si>
-  <si>
-    <t>00:02:45</t>
-  </si>
-  <si>
-    <t>00:02:46</t>
-  </si>
-  <si>
-    <t>00:02:47</t>
-  </si>
-  <si>
-    <t>00:02:48</t>
-  </si>
-  <si>
-    <t>00:02:49</t>
-  </si>
-  <si>
-    <t>00:02:50</t>
-  </si>
-  <si>
-    <t>00:02:51</t>
-  </si>
-  <si>
-    <t>00:02:52</t>
-  </si>
-  <si>
-    <t>00:02:53</t>
-  </si>
-  <si>
-    <t>00:02:54</t>
-  </si>
-  <si>
-    <t>00:02:55</t>
-  </si>
-  <si>
-    <t>00:03:00</t>
-  </si>
-  <si>
-    <t>00:03:01</t>
-  </si>
-  <si>
     <t>00:03:02</t>
   </si>
   <si>
@@ -380,72 +314,6 @@
   </si>
   <si>
     <t>00:07:15</t>
-  </si>
-  <si>
-    <t>00:07:16</t>
-  </si>
-  <si>
-    <t>00:07:17</t>
-  </si>
-  <si>
-    <t>00:07:18</t>
-  </si>
-  <si>
-    <t>00:07:19</t>
-  </si>
-  <si>
-    <t>00:07:20</t>
-  </si>
-  <si>
-    <t>00:07:21</t>
-  </si>
-  <si>
-    <t>00:07:22</t>
-  </si>
-  <si>
-    <t>00:07:23</t>
-  </si>
-  <si>
-    <t>00:07:24</t>
-  </si>
-  <si>
-    <t>00:07:25</t>
-  </si>
-  <si>
-    <t>00:07:26</t>
-  </si>
-  <si>
-    <t>00:07:27</t>
-  </si>
-  <si>
-    <t>00:07:28</t>
-  </si>
-  <si>
-    <t>00:07:29</t>
-  </si>
-  <si>
-    <t>00:07:30</t>
-  </si>
-  <si>
-    <t>00:07:31</t>
-  </si>
-  <si>
-    <t>00:07:32</t>
-  </si>
-  <si>
-    <t>00:07:33</t>
-  </si>
-  <si>
-    <t>00:07:34</t>
-  </si>
-  <si>
-    <t>00:07:35</t>
-  </si>
-  <si>
-    <t>00:07:36</t>
-  </si>
-  <si>
-    <t>00:07:37</t>
   </si>
   <si>
     <t>00:07:38</t>
@@ -778,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -789,7 +657,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1074,7 +941,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1082,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,7 +964,7 @@
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1110,455 +977,60 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>441</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>442</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>443</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>444</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>445</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>446</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>447</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>448</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>449</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>450</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>451</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>452</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>453</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>454</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>455</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>456</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>457</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>458</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>459</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>460</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>461</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>462</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>463</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>464</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>465</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="4"/>
+      <c r="E4" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1581,15 +1053,15 @@
         <v>466</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1598,15 +1070,15 @@
         <v>467</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1615,15 +1087,15 @@
         <v>468</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1632,15 +1104,15 @@
         <v>469</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1649,15 +1121,15 @@
         <v>470</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1666,15 +1138,15 @@
         <v>471</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1683,15 +1155,15 @@
         <v>472</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1700,15 +1172,15 @@
         <v>473</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1717,15 +1189,15 @@
         <v>474</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1734,15 +1206,15 @@
         <v>475</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1751,15 +1223,15 @@
         <v>476</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1768,15 +1240,15 @@
         <v>477</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1785,15 +1257,15 @@
         <v>478</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1802,15 +1274,15 @@
         <v>479</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1819,15 +1291,15 @@
         <v>480</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1836,15 +1308,15 @@
         <v>481</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1853,15 +1325,15 @@
         <v>482</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1870,15 +1342,15 @@
         <v>483</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1887,15 +1359,15 @@
         <v>484</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1904,15 +1376,15 @@
         <v>485</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1921,15 +1393,15 @@
         <v>486</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1938,15 +1410,15 @@
         <v>487</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1955,15 +1427,15 @@
         <v>488</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1972,15 +1444,15 @@
         <v>489</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1989,15 +1461,15 @@
         <v>490</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2006,15 +1478,15 @@
         <v>491</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2023,15 +1495,15 @@
         <v>492</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2040,15 +1512,15 @@
         <v>493</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2057,15 +1529,15 @@
         <v>494</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2074,15 +1546,15 @@
         <v>495</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2091,15 +1563,15 @@
         <v>496</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2108,15 +1580,15 @@
         <v>497</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2125,15 +1597,15 @@
         <v>498</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2142,15 +1614,15 @@
         <v>499</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2159,15 +1631,15 @@
         <v>500</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2176,15 +1648,15 @@
         <v>501</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2193,15 +1665,15 @@
         <v>502</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2210,15 +1682,15 @@
         <v>503</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2227,15 +1699,15 @@
         <v>504</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2244,15 +1716,15 @@
         <v>505</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2261,15 +1733,15 @@
         <v>506</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2278,15 +1750,15 @@
         <v>507</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2295,15 +1767,15 @@
         <v>508</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E43" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2312,15 +1784,15 @@
         <v>509</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E44" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2329,15 +1801,15 @@
         <v>510</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2346,15 +1818,15 @@
         <v>511</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2363,15 +1835,15 @@
         <v>512</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2380,15 +1852,15 @@
         <v>513</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E48" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2397,15 +1869,15 @@
         <v>514</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2414,15 +1886,15 @@
         <v>515</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2431,15 +1903,15 @@
         <v>516</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E51" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2448,15 +1920,15 @@
         <v>517</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E52" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2465,15 +1937,15 @@
         <v>518</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E53" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2482,15 +1954,15 @@
         <v>519</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E54" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2499,15 +1971,15 @@
         <v>520</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2516,15 +1988,15 @@
         <v>521</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2533,15 +2005,15 @@
         <v>522</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E57" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2550,15 +2022,15 @@
         <v>523</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E58" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2567,15 +2039,15 @@
         <v>524</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E59" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2584,15 +2056,15 @@
         <v>525</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2601,15 +2073,15 @@
         <v>526</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E61" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2618,15 +2090,15 @@
         <v>527</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E62" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2635,15 +2107,15 @@
         <v>528</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E63" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2652,15 +2124,15 @@
         <v>529</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E64" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2669,15 +2141,15 @@
         <v>530</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E65" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2686,15 +2158,15 @@
         <v>531</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E66" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E66" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2703,15 +2175,15 @@
         <v>532</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E67" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E67" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2720,15 +2192,15 @@
         <v>533</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E68" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E68" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2737,15 +2209,15 @@
         <v>534</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E69" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E69" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2754,15 +2226,15 @@
         <v>535</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E70" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E70" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2771,15 +2243,15 @@
         <v>536</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E71" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E71" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2788,15 +2260,15 @@
         <v>537</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E72" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2805,15 +2277,15 @@
         <v>538</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E73" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2822,15 +2294,15 @@
         <v>539</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E74" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2839,15 +2311,15 @@
         <v>540</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E75" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E75" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2856,15 +2328,15 @@
         <v>541</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E76" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E76" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2873,15 +2345,15 @@
         <v>542</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E77" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E77" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2890,15 +2362,15 @@
         <v>543</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E78" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E78" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2907,15 +2379,15 @@
         <v>544</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E79" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E79" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2924,15 +2396,15 @@
         <v>545</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E80" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E80" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2941,15 +2413,15 @@
         <v>546</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E81" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2958,15 +2430,15 @@
         <v>547</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E82" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2975,15 +2447,15 @@
         <v>548</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E83" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E83" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2992,15 +2464,15 @@
         <v>549</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E84" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E84" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3009,15 +2481,15 @@
         <v>550</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E85" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E85" s="7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/SKRIPSI/demo_read_input.xlsx
+++ b/SKRIPSI/demo_read_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="199">
   <si>
     <t>Customer Ke</t>
   </si>
@@ -575,6 +575,48 @@
   </si>
   <si>
     <t>BPJS Lama</t>
+  </si>
+  <si>
+    <t>Pelayanan Petugas</t>
+  </si>
+  <si>
+    <t>Pelayanan Dokter</t>
+  </si>
+  <si>
+    <t>Pelayanan Perawat</t>
+  </si>
+  <si>
+    <t>00:04:55</t>
+  </si>
+  <si>
+    <t>00:02:05</t>
+  </si>
+  <si>
+    <t>00:02:02</t>
+  </si>
+  <si>
+    <t>00:05:01</t>
+  </si>
+  <si>
+    <t>00:02:03</t>
+  </si>
+  <si>
+    <t>00:02:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server Awal : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petugas : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perawat : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokter : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapasitas Antrian Awal : </t>
   </si>
 </sst>
 </file>
@@ -646,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -668,6 +710,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -949,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,74 +1008,146 @@
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="J1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="F2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>441</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>442</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>443</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>4</v>
+      <c r="E5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
